--- a/数据整理/stocks/A股/上证主板/603158-腾龙股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603158-腾龙股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007713</t>
+          <t>410003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华富科技动能混合</t>
+          <t>华富成长趋势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.81</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>410003</t>
+          <t>163503</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华富成长趋势混合</t>
+          <t>天治核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.77</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4646</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.56</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>9.43</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3687</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>410009</t>
+          <t>007713</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华富量子生命力混合</t>
+          <t>华富科技动能混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.39</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>163503</t>
+          <t>410009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天治核心成长混合(LOF)</t>
+          <t>华富量子生命力混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>410001</t>
+          <t>410003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华富竞争力优选混合</t>
+          <t>华富成长趋势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.87</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6213</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>410003</t>
+          <t>163503</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华富成长趋势混合</t>
+          <t>天治核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>410009</t>
+          <t>410001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华富量子生命力混合</t>
+          <t>华富竞争力优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62.81</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -772,15 +872,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>87.45</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>8.78</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>163503</t>
+          <t>410009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天治核心成长混合(LOF)</t>
+          <t>华富量子生命力混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603158-腾龙股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603158-腾龙股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603158-腾龙股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603158-腾龙股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5576</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603158-腾龙股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603158-腾龙股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603158-腾龙股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603158-腾龙股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.82</v>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.31</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.31</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -1403,13 +1536,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.74</v>
       </c>
     </row>
